--- a/COMP2160 Assignment 2/Assets/Documentation/QA Plan.xlsx
+++ b/COMP2160 Assignment 2/Assets/Documentation/QA Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\GitHub\comp2160-ass2-comp2160-assignment-2-group-aw\COMP2160 Assignment 2\Assets\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\comp2160-ass2-comp2160-assignment-2-group-aw\COMP2160 Assignment 2\Assets\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA635211-891F-436C-BAB9-416BA0478019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43299FF2-71E9-4653-ABD6-A40DC2CDF580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E8D40446-DFBA-4C44-AD89-CECBAEE307FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E8D40446-DFBA-4C44-AD89-CECBAEE307FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Test ID</t>
   </si>
@@ -42,13 +42,250 @@
     <t>Expected Outcome</t>
   </si>
   <si>
-    <t>UI Testing</t>
-  </si>
-  <si>
-    <t>Play the scene, and monitor the console log for any unexpected output related to the checkpoints, specifically if there are any errors related to materials</t>
-  </si>
-  <si>
-    <t>There will be no unexpected outputs in the console log, and the checkpoints will display their alternate materials correctly</t>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Physics-Based Car Movement</t>
+  </si>
+  <si>
+    <t>3D Terrain and Obstacles</t>
+  </si>
+  <si>
+    <t>Checkpoints</t>
+  </si>
+  <si>
+    <t>Player Health</t>
+  </si>
+  <si>
+    <t>Camera Control</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Main Scene</t>
+  </si>
+  <si>
+    <t>Press the play button and attempt to move and control the car</t>
+  </si>
+  <si>
+    <t>4.a</t>
+  </si>
+  <si>
+    <t>5.a</t>
+  </si>
+  <si>
+    <t>Control the car and attempt to collide with the trees scattered around the terrain</t>
+  </si>
+  <si>
+    <t>The car will strike the trees and either come to sudden halt or bounce back, based on its speed</t>
+  </si>
+  <si>
+    <t>1.d, 1.g</t>
+  </si>
+  <si>
+    <t>Navigate the car to the top of the hill on the left and attempt to fall into the open hole</t>
+  </si>
+  <si>
+    <t>The car will be affected by gravity and fall down, and be uncontrollable while falling.</t>
+  </si>
+  <si>
+    <t>4.c</t>
+  </si>
+  <si>
+    <t>5.c</t>
+  </si>
+  <si>
+    <t>2, 1.a, 1.b</t>
+  </si>
+  <si>
+    <t>1.b, 1.c</t>
+  </si>
+  <si>
+    <t>The car will turn in fixed radius cricle while going forward, and while reversing</t>
+  </si>
+  <si>
+    <t>1.f</t>
+  </si>
+  <si>
+    <t>Drive the car partially up the hill. Face it frontways up the hill, and then face it sideways across the hill.</t>
+  </si>
+  <si>
+    <t>The car should roll backwards when facing up the hill, and remain mostly still when facing sideways across the hill</t>
+  </si>
+  <si>
+    <t>2.b</t>
+  </si>
+  <si>
+    <t>The car will stay on top of the terrain and drive across it</t>
+  </si>
+  <si>
+    <t>Attempt to go in a complete circle to the left and right with the car, and then reverse the car and go in a complete circle</t>
+  </si>
+  <si>
+    <t>Press play</t>
+  </si>
+  <si>
+    <t>3.a, 3.b</t>
+  </si>
+  <si>
+    <t>Press play and make sure a checkpoint is in view</t>
+  </si>
+  <si>
+    <t>The active checkpoint will glow</t>
+  </si>
+  <si>
+    <t>3.b, 3.c, 3.d</t>
+  </si>
+  <si>
+    <t>Drive the car and hit each checkpoint</t>
+  </si>
+  <si>
+    <t>As the car hits each checkpoint's radius, the current checkpoint will become inactive, and the next checkpoint will glow. When all checkpoints are hit, the game over screen appears</t>
+  </si>
+  <si>
+    <t>Press play.</t>
+  </si>
+  <si>
+    <t>When the game starts, the health bar at the top of the screen will be full</t>
+  </si>
+  <si>
+    <t>4.b</t>
+  </si>
+  <si>
+    <t>When the car strikes a tree or particularly sharp or solid terrain, the car will be impacted and take damage.</t>
+  </si>
+  <si>
+    <t>Drive the car into protruding terrain or trees very fast</t>
+  </si>
+  <si>
+    <t>Drive the car into protruding terrain or trees slowly</t>
+  </si>
+  <si>
+    <t>When the car strikes a tree or particularly sharp or solid terrain, the car will not take damage.</t>
+  </si>
+  <si>
+    <t>The health bar at the top of the screen will fill back up a certain amount after going through an active checkpoint</t>
+  </si>
+  <si>
+    <t>Drive the car into protruding terrain or trees fast enough to take damage, and then drive through an active checkpoint</t>
+  </si>
+  <si>
+    <t>4.d, 4.e</t>
+  </si>
+  <si>
+    <t>Drive the car into protruding terrain or trees fast enough to take damage, and repeat until the car's health reaches zero.</t>
+  </si>
+  <si>
+    <t>When the health bar is halfway empty, smoke will emit from the car. When the car 's health reaches zero, an explosion will play and the game over menu will appear</t>
+  </si>
+  <si>
+    <t>Drive the car, and turn either left or right</t>
+  </si>
+  <si>
+    <t>The car should remain vertical in the camer's view, regardless of how the car is rotated</t>
+  </si>
+  <si>
+    <t>5.b</t>
+  </si>
+  <si>
+    <t>Drive the car, and take it up and down the nearby hills.</t>
+  </si>
+  <si>
+    <t>As the car drives, it should always remain in the middle of the screen horizontally while it turns or goes up and down slopes</t>
+  </si>
+  <si>
+    <t>Drive the car and accelerate forward, and then it let it come to a stop</t>
+  </si>
+  <si>
+    <t>As the car accelerates, it should move towards the top of the screen, and when it slows down it should move closer to the bottom of the screen.</t>
+  </si>
+  <si>
+    <t>5.d</t>
+  </si>
+  <si>
+    <t>Drive the car, and turn left and right</t>
+  </si>
+  <si>
+    <t>As the car turns right, the camera should be on the right hand side of the car while it turns, and the same with the left hand side.</t>
+  </si>
+  <si>
+    <t>5.e</t>
+  </si>
+  <si>
+    <t>Test Level</t>
+  </si>
+  <si>
+    <t>Drive the car, turning and going up and down slopes.</t>
+  </si>
+  <si>
+    <t>As the car moves, there should be no sudden jerks or cuts between camera positions.</t>
+  </si>
+  <si>
+    <t>6.a, 6.b</t>
+  </si>
+  <si>
+    <t>Press play and drive the car into trees and at least one active checkpoint</t>
+  </si>
+  <si>
+    <t>A health bar will appear at the top of the screen, which will update when at speed colliding with trees, terrain and/or checkpoints, and a timer will appear in the bottom left of the screen.</t>
+  </si>
+  <si>
+    <t>Drive the car and hit every checkpoint</t>
+  </si>
+  <si>
+    <t>The game over screen will appear, the title will say "You Win!", a list of all the checkpoints will appear with the times that the car reached them</t>
+  </si>
+  <si>
+    <t>6.c, 6.d</t>
+  </si>
+  <si>
+    <t>6.e</t>
+  </si>
+  <si>
+    <t>Drive the car, and reduce its health to zero by running into terrain or trees</t>
+  </si>
+  <si>
+    <t>The game over screen will appear, the title will say "You Died!", a list of all the checkpoints will appear with the times that the car reached them, or it will instead say incomplete</t>
+  </si>
+  <si>
+    <t>Drive the car, and either hit every checkpoint or reduce the car's health to zero</t>
+  </si>
+  <si>
+    <t>The game over screen will appear, and the restart button will be down the bottom. Pressing it will reset the level, the car's health, the timer, and the checkpoints</t>
+  </si>
+  <si>
+    <t>7.a</t>
+  </si>
+  <si>
+    <t>The game_start event will appear in the console log</t>
+  </si>
+  <si>
+    <t>7.b</t>
+  </si>
+  <si>
+    <t>The game_over event will appear in the console log</t>
+  </si>
+  <si>
+    <t>7.c</t>
+  </si>
+  <si>
+    <t>Drive the car and hit a checkpoint</t>
+  </si>
+  <si>
+    <t>The CheckpointReached event will appear in the console log</t>
+  </si>
+  <si>
+    <t>7.d</t>
+  </si>
+  <si>
+    <t>Reduce the car's health to zero</t>
+  </si>
+  <si>
+    <t>The PlayerDied event will appear in the console log</t>
   </si>
 </sst>
 </file>
@@ -64,15 +301,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +359,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,54 +760,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC845B5-D93C-45CB-8DAC-F6C7E0CD8C2E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18">
+        <v>6.3</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
         <v>7</v>
       </c>
+      <c r="B35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21">
+        <v>7.4</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>